--- a/Videos DSP.xlsx
+++ b/Videos DSP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="99">
   <si>
     <t>Calidad</t>
   </si>
@@ -313,18 +313,6 @@
   </si>
   <si>
     <t>Borde no claro</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Coef. Dice</t>
-  </si>
-  <si>
-    <t>Area Error</t>
-  </si>
-  <si>
-    <t>Promedio:</t>
   </si>
 </sst>
 </file>
@@ -364,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -436,22 +424,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,11 +453,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,314 +1760,245 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1.1800000000000001E-3</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.87280000000000002</v>
-      </c>
-      <c r="H3" s="14">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1.01E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="D4" s="14">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
-        <v>0.84919999999999995</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2.23E-2</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
-        <v>0.82840000000000003</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0.1716</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14">
-        <v>0.83550000000000002</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1.32E-2</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <v>0.77590000000000003</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.2155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14">
-        <v>0.89129999999999998</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="H6" s="14">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="L6" s="14">
-        <v>9.2299999999999993E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14">
-        <v>0.9254</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="H8" s="14">
-        <v>4.24E-2</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14">
-        <v>0.92190000000000005</v>
-      </c>
-      <c r="D9" s="14">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="H9" s="14">
-        <v>7.2700000000000001E-2</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
-        <v>0.68420000000000003</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0.2707</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="D10" s="14">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
-        <v>0.94879999999999998</v>
-      </c>
-      <c r="H10" s="14">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="L10" s="14">
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
-        <v>0.89839999999999998</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2.93E-2</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="H11" s="14">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
-        <v>0.9375</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
-        <v>0.9466</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14">
-        <v>0.95009999999999994</v>
-      </c>
-      <c r="D13" s="14">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="17">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.91027999999999998</v>
-      </c>
-      <c r="H13" s="17">
-        <f>AVERAGE(H3:H12)</f>
-        <v>3.261E-2</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="17">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.69618999999999998</v>
-      </c>
-      <c r="L13" s="17">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.28573999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="17">
-        <f>AVERAGE(C3:C13)</f>
-        <v>0.91232727272727265</v>
-      </c>
-      <c r="D14" s="17">
-        <f>AVERAGE(D3:D13)</f>
-        <v>4.1761818181818185E-2</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
